--- a/WindowsFormsApp autósiskola/bin/Debug/bin/Debug/SablonFajl.xlsx
+++ b/WindowsFormsApp autósiskola/bin/Debug/bin/Debug/SablonFajl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\Extra projektek\WindowsFormsApp autósiskola\WindowsFormsApp autósiskola\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nella\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD65250-49AA-46A8-89CB-33E1A8EC73E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4E63F97-38E7-44DF-A7D7-BB8DCF6997AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{95E7278A-85B2-47E5-A576-31C77FD5FB75}"/>
+    <workbookView xWindow="6420" yWindow="480" windowWidth="17280" windowHeight="8964" xr2:uid="{95E7278A-85B2-47E5-A576-31C77FD5FB75}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -205,7 +204,7 @@
     <t>érdeklődött</t>
   </si>
   <si>
-    <t>E szerinti a sablon szerint állítsa be az oszlopok sorrendjét a Főút autósiskola táblázattal való működés miatt.(1 sor minta kitalált adatokkal) A sorszámozás mindenképpen az 'A2' cellától induljon növekvő sorrendben lefelé.  Az üres cellákba bármilyen adatot tárolhat, viszont mindeképpen legyen a "megjegyzések" az utolsó oszlop. A "felnőttképzési sz." és a "megjegyzések" oszlopok közé bármennyi plusz adat tehető. Mindig csináljon lehetőleg a biztonság kedvéért egy másik mentést az adott excel fájlról amit amit használ.</t>
+    <t xml:space="preserve">Eszerint a sablon szerint állítsa be az oszlopok sorrendjét a Főút Autósiskola táblázatával való működés miatt (1. sor minta kitalált adatokkal). A sorszámozás mindenképpen az 'A2' cellától induljon növekvő sorrendben lefelé. Az üres cellákban bármilyen adatot tárolhat, viszont mindenképpen legyen a "megjegyzések" az utolsó oszlop. A "felnőttképzési sz." és a "megjegyzések" oszlopok közé bármennyi plusz adatot tehet. A biztonság kedvéért mindig csináljon egy másik mentést az adott excel fájlról, amit használ. </t>
   </si>
 </sst>
 </file>
@@ -588,9 +587,9 @@
       <selection activeCell="B10" sqref="B10:M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -786,7 +785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
@@ -802,7 +801,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -816,7 +815,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -830,7 +829,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -844,7 +843,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -858,7 +857,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -872,7 +871,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -886,7 +885,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -900,7 +899,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -914,7 +913,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -928,7 +927,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -942,7 +941,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
